--- a/glass skin of house/Presupuesto.xlsx
+++ b/glass skin of house/Presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIC\Downloads\git sketchup mix\glass skin of house\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFCAB15-5725-4F32-9C8A-3515F1EFF18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626F174E-9A51-466F-8AA6-A0C767C24D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{886E5E22-01FD-4AB9-A261-FD4B71D86E63}"/>
   </bookViews>
@@ -120,11 +120,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -134,7 +131,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB92A397-B0DB-4B57-BEC0-C4E782F0968F}">
   <dimension ref="A2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,53 +478,53 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>850</v>
+      <c r="B3" s="2">
+        <v>1050</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <f>B3*C3</f>
-        <v>2550</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>B3/2</f>
-        <v>425</v>
+        <v>525</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f>B4*C4</f>
-        <v>425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>220</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D18" si="0">B5*C5</f>
-        <v>2200</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>150</v>
       </c>
       <c r="C6" s="1">
@@ -540,7 +539,7 @@
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>159.80000000000001</v>
       </c>
       <c r="C7" s="1">
@@ -555,7 +554,7 @@
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>60</v>
       </c>
       <c r="C8" s="1">
@@ -570,7 +569,7 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>42</v>
       </c>
       <c r="C9" s="1">
@@ -585,13 +584,13 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>165</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
@@ -599,9 +598,9 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
@@ -609,9 +608,9 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
@@ -619,9 +618,9 @@
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13">
         <v>165</v>
       </c>
     </row>
@@ -629,7 +628,7 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>57</v>
       </c>
       <c r="C14" s="1">
@@ -644,7 +643,7 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>28</v>
       </c>
       <c r="C15" s="1">
@@ -659,22 +658,22 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>1500</v>
       </c>
       <c r="C17" s="1">
@@ -689,7 +688,7 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>50</v>
       </c>
       <c r="C18" s="1">
@@ -703,7 +702,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D19">
         <f>SUM(D3:D18)</f>
-        <v>8012.8</v>
+        <v>10121.799999999999</v>
       </c>
     </row>
   </sheetData>

--- a/glass skin of house/Presupuesto.xlsx
+++ b/glass skin of house/Presupuesto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29621"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIC\Downloads\git sketchup mix\glass skin of house\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626F174E-9A51-466F-8AA6-A0C767C24D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463B082D-B73B-4C5E-BF9C-982CF17FC18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{886E5E22-01FD-4AB9-A261-FD4B71D86E63}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Materiales</t>
   </si>
   <si>
-    <t>✓ 26 pieza - Vidrio bronce de 6 mm – Tamaño 816 mm x 720 mm</t>
-  </si>
-  <si>
     <t>✓ 1 angular - Angular de anclaje 33x33 – 2.2 mm espesor</t>
   </si>
   <si>
@@ -57,21 +54,12 @@
     <t>✓ 3 seguros de ventana - Seguro tranca</t>
   </si>
   <si>
-    <t>✓ X metros – Felpa</t>
-  </si>
-  <si>
     <t>Precio Unitario</t>
   </si>
   <si>
     <t>Cantidad</t>
   </si>
   <si>
-    <t>✓ 10 tubos 30x60 - Tubos de aluminio champagne 30x60 – 1.2 mm espesor + 4 tubos adicionales</t>
-  </si>
-  <si>
-    <t>✓ 2 tubos 30x30- Tubos de aluminio champagne 30x60 – 1.2 mm espesor + 4 tubos adicionales</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -81,17 +69,56 @@
     <t>✓ Transporte</t>
   </si>
   <si>
-    <t>✓ 26 pieza - Vidrio bronce de 6 mm – Tamaño 816 mm x 720 mm (MITAD)</t>
-  </si>
-  <si>
-    <t>✓ 4 silicona salchicha - Silicona estructural certificado – 300 ml (MAESTRO)</t>
+    <t>Tornillos, ramplus, broca (Ceja el alto)</t>
+  </si>
+  <si>
+    <t>✓ Felpa</t>
+  </si>
+  <si>
+    <t>36 tirafonod de 44x3 (42 Bs) 12 Ramplus nro 8 fisher ladirllo (26 Bs)</t>
+  </si>
+  <si>
+    <t>4 tubos 30x60</t>
+  </si>
+  <si>
+    <t>✓ 26 pieza - Vidrio bronce de 6 mm – Tamaño 816 mm x 720 mm (4 hojas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✓ 10 tubos 30x60 - Tubos de aluminio champagne 30x60 – 1.2 mm espesor </t>
+  </si>
+  <si>
+    <t>✓ 2 tubos 30x30- Tubos de aluminio champagne 30x60 – 1.2 mm espesor</t>
+  </si>
+  <si>
+    <t>✓ 1 portal felpa - Aluminio para las proyectantes</t>
+  </si>
+  <si>
+    <t>✓ 5 silicona salchicha - Silicona estructural certificado – 300 ml</t>
+  </si>
+  <si>
+    <t>Materiales extra vic</t>
+  </si>
+  <si>
+    <t>Gaseosas</t>
+  </si>
+  <si>
+    <t>✓ Incremento vidrio bronce reflectivo 6mm</t>
+  </si>
+  <si>
+    <t>✓ Incremento angular 12x15 negro</t>
+  </si>
+  <si>
+    <t>8800 (Costo)</t>
+  </si>
+  <si>
+    <t>✓ Incremento limpieza y colocado de angular negro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +126,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -128,10 +169,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -448,96 +492,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB92A397-B0DB-4B57-BEC0-C4E782F0968F}">
-  <dimension ref="A2:D19"/>
+  <dimension ref="A2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
       </c>
       <c r="D3">
         <f>B3*C3</f>
-        <v>4200</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
-        <f>B3/2</f>
-        <v>525</v>
+        <v>220</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <f>B4*C4</f>
-        <v>0</v>
+        <f t="shared" ref="D4:D21" si="0">B4*C4</f>
+        <v>2200</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D18" si="0">B5*C5</f>
-        <v>3080</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
         <v>150</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
         <v>159.80000000000001</v>
@@ -552,111 +597,127 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
-        <v>60</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="3">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>36</v>
+      </c>
       <c r="D11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>43.199999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C12" s="4">
+        <v>36</v>
+      </c>
       <c r="D12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>79.2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
       <c r="D13">
-        <v>165</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -669,9 +730,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2">
         <v>1500</v>
@@ -684,32 +745,153 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2">
         <v>50</v>
       </c>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="7">
+        <v>600</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-1</v>
+      </c>
       <c r="D19">
-        <f>SUM(D3:D18)</f>
-        <v>10121.799999999999</v>
+        <f t="shared" si="0"/>
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="7">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="7">
+        <v>200</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <f>SUM(D3:D21)</f>
+        <v>8068.2000000000007</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>63</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f>B26*C26</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:D29" si="1">B27*C27</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>220</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <f>SUM(D26:D29)</f>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>